--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cel-Cxcr4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.15796</v>
+        <v>0.9534346666666668</v>
       </c>
       <c r="H2">
-        <v>0.47388</v>
+        <v>2.860304</v>
       </c>
       <c r="I2">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220973</v>
       </c>
       <c r="J2">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N2">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P2">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q2">
-        <v>3.814971993066667</v>
+        <v>26.39209270186134</v>
       </c>
       <c r="R2">
-        <v>34.3347479376</v>
+        <v>237.528834316752</v>
       </c>
       <c r="S2">
-        <v>0.009844830468324038</v>
+        <v>0.02409457200874152</v>
       </c>
       <c r="T2">
-        <v>0.009844830468324038</v>
+        <v>0.02409457200874152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.15796</v>
+        <v>0.9534346666666668</v>
       </c>
       <c r="H3">
-        <v>0.47388</v>
+        <v>2.860304</v>
       </c>
       <c r="I3">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220973</v>
       </c>
       <c r="J3">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220974</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P3">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q3">
-        <v>0.01535434384</v>
+        <v>0.09267766333866667</v>
       </c>
       <c r="R3">
-        <v>0.13818909456</v>
+        <v>0.834098970048</v>
       </c>
       <c r="S3">
-        <v>3.962307254991006E-05</v>
+        <v>8.460976013311443E-05</v>
       </c>
       <c r="T3">
-        <v>3.962307254991005E-05</v>
+        <v>8.460976013311443E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.15796</v>
+        <v>0.9534346666666668</v>
       </c>
       <c r="H4">
-        <v>0.47388</v>
+        <v>2.860304</v>
       </c>
       <c r="I4">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220973</v>
       </c>
       <c r="J4">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N4">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O4">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P4">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q4">
-        <v>25.20286714425333</v>
+        <v>259.5884890655591</v>
       </c>
       <c r="R4">
-        <v>226.82580429828</v>
+        <v>2336.296401590032</v>
       </c>
       <c r="S4">
-        <v>0.06503794911254862</v>
+        <v>0.2369904354719626</v>
       </c>
       <c r="T4">
-        <v>0.06503794911254861</v>
+        <v>0.2369904354719626</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.15796</v>
+        <v>0.9534346666666668</v>
       </c>
       <c r="H5">
-        <v>0.47388</v>
+        <v>2.860304</v>
       </c>
       <c r="I5">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220973</v>
       </c>
       <c r="J5">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N5">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O5">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P5">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q5">
-        <v>1.529973285573334</v>
+        <v>11.18871344786489</v>
       </c>
       <c r="R5">
-        <v>13.76975957016</v>
+        <v>100.698421030784</v>
       </c>
       <c r="S5">
-        <v>0.003948214467867255</v>
+        <v>0.01021469820147086</v>
       </c>
       <c r="T5">
-        <v>0.003948214467867254</v>
+        <v>0.01021469820147086</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.15796</v>
+        <v>0.9534346666666668</v>
       </c>
       <c r="H6">
-        <v>0.47388</v>
+        <v>2.860304</v>
       </c>
       <c r="I6">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220973</v>
       </c>
       <c r="J6">
-        <v>0.170769352184221</v>
+        <v>0.4775168557220974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N6">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O6">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P6">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q6">
-        <v>35.61169505065334</v>
+        <v>225.7881613319645</v>
       </c>
       <c r="R6">
-        <v>320.50525545588</v>
+        <v>2032.09345198768</v>
       </c>
       <c r="S6">
-        <v>0.09189873506293122</v>
+        <v>0.2061325402797893</v>
       </c>
       <c r="T6">
-        <v>0.09189873506293121</v>
+        <v>0.2061325402797893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7082809999999999</v>
       </c>
       <c r="I7">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="J7">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N7">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P7">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q7">
-        <v>5.702017764457777</v>
+        <v>6.535325549650334</v>
       </c>
       <c r="R7">
-        <v>51.31815988012</v>
+        <v>58.817929946853</v>
       </c>
       <c r="S7">
-        <v>0.01471449811964003</v>
+        <v>0.005966403416183541</v>
       </c>
       <c r="T7">
-        <v>0.01471449811964003</v>
+        <v>0.005966403416183541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7082809999999999</v>
       </c>
       <c r="I8">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="J8">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P8">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q8">
         <v>0.02294924877466667</v>
@@ -948,10 +948,10 @@
         <v>0.206543238972</v>
       </c>
       <c r="S8">
-        <v>5.922231250258049E-05</v>
+        <v>2.095143925849924E-05</v>
       </c>
       <c r="T8">
-        <v>5.922231250258048E-05</v>
+        <v>2.095143925849924E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7082809999999999</v>
       </c>
       <c r="I9">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="J9">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N9">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O9">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P9">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q9">
-        <v>37.66926636236788</v>
+        <v>64.28043824147477</v>
       </c>
       <c r="R9">
-        <v>339.0233972613109</v>
+        <v>578.523944173273</v>
       </c>
       <c r="S9">
-        <v>0.09720845706800253</v>
+        <v>0.05868460926758733</v>
       </c>
       <c r="T9">
-        <v>0.09720845706800252</v>
+        <v>0.05868460926758733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7082809999999999</v>
       </c>
       <c r="I10">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="J10">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N10">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O10">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P10">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q10">
-        <v>2.286762489826889</v>
+        <v>2.770598212486222</v>
       </c>
       <c r="R10">
-        <v>20.580862408442</v>
+        <v>24.935383912376</v>
       </c>
       <c r="S10">
-        <v>0.005901167577267424</v>
+        <v>0.002529408292557707</v>
       </c>
       <c r="T10">
-        <v>0.005901167577267422</v>
+        <v>0.002529408292557707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7082809999999999</v>
       </c>
       <c r="I11">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="J11">
-        <v>0.2552390637595852</v>
+        <v>0.1182448145678581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N11">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O11">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P11">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q11">
-        <v>53.22673879921455</v>
+        <v>55.91065309714111</v>
       </c>
       <c r="R11">
-        <v>479.040649192931</v>
+        <v>503.19587787427</v>
       </c>
       <c r="S11">
-        <v>0.1373557186821727</v>
+        <v>0.05104344215227102</v>
       </c>
       <c r="T11">
-        <v>0.1373557186821726</v>
+        <v>0.05104344215227102</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1528276666666667</v>
+        <v>0.462013</v>
       </c>
       <c r="H12">
-        <v>0.458483</v>
+        <v>1.386039</v>
       </c>
       <c r="I12">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="J12">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N12">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P12">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q12">
-        <v>3.691018410351111</v>
+        <v>12.789014655923</v>
       </c>
       <c r="R12">
-        <v>33.21916569316</v>
+        <v>115.101131903307</v>
       </c>
       <c r="S12">
-        <v>0.009524958655373955</v>
+        <v>0.01167568779137605</v>
       </c>
       <c r="T12">
-        <v>0.009524958655373955</v>
+        <v>0.01167568779137605</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1528276666666667</v>
+        <v>0.462013</v>
       </c>
       <c r="H13">
-        <v>0.458483</v>
+        <v>1.386039</v>
       </c>
       <c r="I13">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="J13">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P13">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q13">
-        <v>0.01485546051066667</v>
+        <v>0.04490951165199999</v>
       </c>
       <c r="R13">
-        <v>0.133699144596</v>
+        <v>0.4041856048679999</v>
       </c>
       <c r="S13">
-        <v>3.833566551004561E-05</v>
+        <v>4.09999871779859E-05</v>
       </c>
       <c r="T13">
-        <v>3.83356655100456E-05</v>
+        <v>4.099998717798589E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1528276666666667</v>
+        <v>0.462013</v>
       </c>
       <c r="H14">
-        <v>0.458483</v>
+        <v>1.386039</v>
       </c>
       <c r="I14">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="J14">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N14">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O14">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P14">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q14">
-        <v>24.38399201675255</v>
+        <v>125.7907445488097</v>
       </c>
       <c r="R14">
-        <v>219.455928150773</v>
+        <v>1132.116700939287</v>
       </c>
       <c r="S14">
-        <v>0.06292477847338698</v>
+        <v>0.1148402359298604</v>
       </c>
       <c r="T14">
-        <v>0.06292477847338698</v>
+        <v>0.1148402359298604</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1528276666666667</v>
+        <v>0.462013</v>
       </c>
       <c r="H15">
-        <v>0.458483</v>
+        <v>1.386039</v>
       </c>
       <c r="I15">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="J15">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N15">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O15">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P15">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q15">
-        <v>1.480262391089556</v>
+        <v>5.421798941149333</v>
       </c>
       <c r="R15">
-        <v>13.322361519806</v>
+        <v>48.79619047034399</v>
       </c>
       <c r="S15">
-        <v>0.003819931657531828</v>
+        <v>0.00494981305499991</v>
       </c>
       <c r="T15">
-        <v>0.003819931657531827</v>
+        <v>0.004949813054999909</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1528276666666667</v>
+        <v>0.462013</v>
       </c>
       <c r="H16">
-        <v>0.458483</v>
+        <v>1.386039</v>
       </c>
       <c r="I16">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="J16">
-        <v>0.1652208257311518</v>
+        <v>0.2313939305710861</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N16">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O16">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P16">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q16">
-        <v>34.45462307315923</v>
+        <v>109.4118657822367</v>
       </c>
       <c r="R16">
-        <v>310.091607658433</v>
+        <v>984.7067920401299</v>
       </c>
       <c r="S16">
-        <v>0.08891282127934899</v>
+        <v>0.09988719380767178</v>
       </c>
       <c r="T16">
-        <v>0.08891282127934896</v>
+        <v>0.09988719380767178</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1212576666666667</v>
+        <v>0.2119003333333334</v>
       </c>
       <c r="H17">
-        <v>0.363773</v>
+        <v>0.6357010000000001</v>
       </c>
       <c r="I17">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="J17">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N17">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P17">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q17">
-        <v>2.928555344884444</v>
+        <v>5.865628171923668</v>
       </c>
       <c r="R17">
-        <v>26.35699810396</v>
+        <v>52.79065354731301</v>
       </c>
       <c r="S17">
-        <v>0.007557363708013928</v>
+        <v>0.005355005454150675</v>
       </c>
       <c r="T17">
-        <v>0.007557363708013927</v>
+        <v>0.005355005454150675</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.1212576666666667</v>
+        <v>0.2119003333333334</v>
       </c>
       <c r="H18">
-        <v>0.363773</v>
+        <v>0.6357010000000001</v>
       </c>
       <c r="I18">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="J18">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.291612</v>
       </c>
       <c r="O18">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P18">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q18">
-        <v>0.01178673023066667</v>
+        <v>0.02059756000133334</v>
       </c>
       <c r="R18">
-        <v>0.106080572076</v>
+        <v>0.185378040012</v>
       </c>
       <c r="S18">
-        <v>3.041656953384492E-05</v>
+        <v>1.88044729253887E-05</v>
       </c>
       <c r="T18">
-        <v>3.041656953384492E-05</v>
+        <v>1.88044729253887E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.1212576666666667</v>
+        <v>0.2119003333333334</v>
       </c>
       <c r="H19">
-        <v>0.363773</v>
+        <v>0.6357010000000001</v>
       </c>
       <c r="I19">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="J19">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N19">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O19">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P19">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q19">
-        <v>19.34692873652922</v>
+        <v>57.6933997531259</v>
       </c>
       <c r="R19">
-        <v>174.122358628763</v>
+        <v>519.2405977781331</v>
       </c>
       <c r="S19">
-        <v>0.04992624686106007</v>
+        <v>0.05267099469845237</v>
       </c>
       <c r="T19">
-        <v>0.04992624686106006</v>
+        <v>0.05267099469845237</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1212576666666667</v>
+        <v>0.2119003333333334</v>
       </c>
       <c r="H20">
-        <v>0.363773</v>
+        <v>0.6357010000000001</v>
       </c>
       <c r="I20">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="J20">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N20">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O20">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P20">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q20">
-        <v>1.174480822176222</v>
+        <v>2.486685445855111</v>
       </c>
       <c r="R20">
-        <v>10.570327399586</v>
+        <v>22.380169012696</v>
       </c>
       <c r="S20">
-        <v>0.003030838654552787</v>
+        <v>0.00227021108993073</v>
       </c>
       <c r="T20">
-        <v>0.003030838654552786</v>
+        <v>0.00227021108993073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1212576666666667</v>
+        <v>0.2119003333333334</v>
       </c>
       <c r="H21">
-        <v>0.363773</v>
+        <v>0.6357010000000001</v>
       </c>
       <c r="I21">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="J21">
-        <v>0.1310907393266452</v>
+        <v>0.1061278600803946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N21">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O21">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P21">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q21">
-        <v>27.33724390913589</v>
+        <v>50.18129539618556</v>
       </c>
       <c r="R21">
-        <v>246.035195182223</v>
+        <v>451.6316585656701</v>
       </c>
       <c r="S21">
-        <v>0.0705458735334846</v>
+        <v>0.04581284436493545</v>
       </c>
       <c r="T21">
-        <v>0.07054587353348458</v>
+        <v>0.04581284436493546</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.2568513333333333</v>
+        <v>0.1332096666666667</v>
       </c>
       <c r="H22">
-        <v>0.770554</v>
+        <v>0.399629</v>
       </c>
       <c r="I22">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856371</v>
       </c>
       <c r="J22">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856373</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.15150666666667</v>
+        <v>27.681071</v>
       </c>
       <c r="N22">
-        <v>72.45452</v>
+        <v>83.04321300000001</v>
       </c>
       <c r="O22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111082</v>
       </c>
       <c r="P22">
-        <v>0.05764986715944041</v>
+        <v>0.05045805550111081</v>
       </c>
       <c r="Q22">
-        <v>6.203346689342222</v>
+        <v>3.687386240886334</v>
       </c>
       <c r="R22">
-        <v>55.83012020408</v>
+        <v>33.18647616797701</v>
       </c>
       <c r="S22">
-        <v>0.01600821620808846</v>
+        <v>0.003366386830659036</v>
       </c>
       <c r="T22">
-        <v>0.01600821620808846</v>
+        <v>0.003366386830659036</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.2568513333333333</v>
+        <v>0.1332096666666667</v>
       </c>
       <c r="H23">
-        <v>0.770554</v>
+        <v>0.399629</v>
       </c>
       <c r="I23">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856371</v>
       </c>
       <c r="J23">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856373</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.291612</v>
       </c>
       <c r="O23">
-        <v>0.0002320268364499377</v>
+        <v>0.0001771869602491167</v>
       </c>
       <c r="P23">
-        <v>0.0002320268364499376</v>
+        <v>0.0001771869602491166</v>
       </c>
       <c r="Q23">
-        <v>0.02496697700533333</v>
+        <v>0.01294851243866667</v>
       </c>
       <c r="R23">
-        <v>0.224702793048</v>
+        <v>0.116536611948</v>
       </c>
       <c r="S23">
-        <v>6.442921635355659E-05</v>
+        <v>1.182130075412837E-05</v>
       </c>
       <c r="T23">
-        <v>6.442921635355656E-05</v>
+        <v>1.182130075412837E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.2568513333333333</v>
+        <v>0.1332096666666667</v>
       </c>
       <c r="H24">
-        <v>0.770554</v>
+        <v>0.399629</v>
       </c>
       <c r="I24">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856371</v>
       </c>
       <c r="J24">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856373</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.5522103333333</v>
+        <v>272.2666776666667</v>
       </c>
       <c r="N24">
-        <v>478.6566309999999</v>
+        <v>816.800033</v>
       </c>
       <c r="O24">
-        <v>0.3808525843816961</v>
+        <v>0.4962975288350554</v>
       </c>
       <c r="P24">
-        <v>0.380852584381696</v>
+        <v>0.4962975288350553</v>
       </c>
       <c r="Q24">
-        <v>40.9811979603971</v>
+        <v>36.26855337641745</v>
       </c>
       <c r="R24">
-        <v>368.8307816435739</v>
+        <v>326.416980387757</v>
       </c>
       <c r="S24">
-        <v>0.1057551528666979</v>
+        <v>0.03311125346719263</v>
       </c>
       <c r="T24">
-        <v>0.1057551528666978</v>
+        <v>0.03311125346719263</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.2568513333333333</v>
+        <v>0.1332096666666667</v>
       </c>
       <c r="H25">
-        <v>0.770554</v>
+        <v>0.399629</v>
       </c>
       <c r="I25">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856371</v>
       </c>
       <c r="J25">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856373</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>9.685827333333334</v>
+        <v>11.73516533333333</v>
       </c>
       <c r="N25">
-        <v>29.057482</v>
+        <v>35.205496</v>
       </c>
       <c r="O25">
-        <v>0.02312015837366435</v>
+        <v>0.02139128300722342</v>
       </c>
       <c r="P25">
-        <v>0.02312015837366434</v>
+        <v>0.02139128300722341</v>
       </c>
       <c r="Q25">
-        <v>2.487817665003111</v>
+        <v>1.563237462331555</v>
       </c>
       <c r="R25">
-        <v>22.390358985028</v>
+        <v>14.069137160984</v>
       </c>
       <c r="S25">
-        <v>0.006420006016445058</v>
+        <v>0.001427152368264211</v>
       </c>
       <c r="T25">
-        <v>0.006420006016445056</v>
+        <v>0.001427152368264211</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2568513333333333</v>
+        <v>0.1332096666666667</v>
       </c>
       <c r="H26">
-        <v>0.770554</v>
+        <v>0.399629</v>
       </c>
       <c r="I26">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856371</v>
       </c>
       <c r="J26">
-        <v>0.2776800189983967</v>
+        <v>0.06671653905856373</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>225.4475503333333</v>
+        <v>236.8155566666667</v>
       </c>
       <c r="N26">
-        <v>676.342651</v>
+        <v>710.44667</v>
       </c>
       <c r="O26">
-        <v>0.5381453632487493</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="P26">
-        <v>0.5381453632487492</v>
+        <v>0.4316759456963613</v>
       </c>
       <c r="Q26">
-        <v>57.90650389985044</v>
+        <v>31.54612136504778</v>
       </c>
       <c r="R26">
-        <v>521.1585350986541</v>
+        <v>283.91509228543</v>
       </c>
       <c r="S26">
-        <v>0.1494322146908118</v>
+        <v>0.02879992509169372</v>
       </c>
       <c r="T26">
-        <v>0.1494322146908118</v>
+        <v>0.02879992509169372</v>
       </c>
     </row>
   </sheetData>
